--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring Security\Spring_Security_WorkSpace\Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F895244-B494-48F7-8758-715AD1123073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229F8FB9-D24C-47E8-887A-B6CFA6092DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" r:id="rId5" sheetId="2"/>
+    <sheet name="Sheet1 (3)" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual" calcOnSave="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Complete</t>
   </si>
@@ -109,7 +110,34 @@
     <t>32ff4a57-241b-46ac-a6be-1ff171ef3b9d</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>00016827</t>
+  </si>
+  <si>
+    <t>00008040</t>
+  </si>
+  <si>
+    <t>00096011</t>
+  </si>
+  <si>
+    <t>00094908</t>
+  </si>
+  <si>
+    <t>00058980</t>
+  </si>
+  <si>
+    <t>00063727</t>
+  </si>
+  <si>
+    <t>00095926</t>
+  </si>
+  <si>
+    <t>00063569</t>
+  </si>
+  <si>
+    <t>00140894</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date</t>
   </si>
   <si>
     <t>dist_refid</t>
@@ -124,31 +152,31 @@
     <t>[{"name":"share","options":["google|microsoft|hmh|other"]}]</t>
   </si>
   <si>
-    <t>Decatur City Schools (16827.0)</t>
-  </si>
-  <si>
-    <t>Ft. Payne City Schools (8040.0)</t>
-  </si>
-  <si>
-    <t>Garden Grove USD (96011.0)</t>
-  </si>
-  <si>
-    <t>Brea Olinda Unified School District (94908.0)</t>
-  </si>
-  <si>
-    <t>Central USD (58980.0)</t>
-  </si>
-  <si>
-    <t>Rosedale USD (63727.0)</t>
-  </si>
-  <si>
-    <t>Fullerton Joint Union (95926.0)</t>
-  </si>
-  <si>
-    <t>Norris SD (63569.0)</t>
-  </si>
-  <si>
-    <t>Conejo Unified School District (140894.0)</t>
+    <t>Decatur City Schools (00016827)</t>
+  </si>
+  <si>
+    <t>Ft. Payne City Schools (00008040)</t>
+  </si>
+  <si>
+    <t>Garden Grove USD (00096011)</t>
+  </si>
+  <si>
+    <t>Brea Olinda Unified School District (00094908)</t>
+  </si>
+  <si>
+    <t>Central USD (00058980)</t>
+  </si>
+  <si>
+    <t>Rosedale USD (00063727)</t>
+  </si>
+  <si>
+    <t>Fullerton Joint Union (00095926)</t>
+  </si>
+  <si>
+    <t>Norris SD (00063569)</t>
+  </si>
+  <si>
+    <t>Conejo Unified School District (00140894)</t>
   </si>
 </sst>
 </file>
@@ -195,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,12 +537,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4153F6B5-F601-4789-9450-958A6A16BD08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCE6B1-5FF4-4B9A-B595-EFDD693874D4}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -528,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -560,8 +586,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>16827</v>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -581,8 +607,8 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
-        <v>8040</v>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -602,8 +628,8 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>96011</v>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -623,8 +649,8 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <v>94908</v>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -644,8 +670,8 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>58980</v>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -665,8 +691,8 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>63727</v>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -686,8 +712,8 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>95926</v>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -707,8 +733,8 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>63569</v>
+      <c r="E9" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -728,8 +754,8 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>140894</v>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -740,16 +766,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:E10" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4153F6B5-F601-4789-9450-958A6A16BD08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCE6B1-5FF4-4B9A-B595-EFDD693874D4}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -763,13 +790,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -777,13 +804,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -791,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -805,13 +832,13 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -819,13 +846,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -833,13 +860,13 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -847,13 +874,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -861,13 +888,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -875,13 +902,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -889,17 +916,182 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:E10" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCE6B1-5FF4-4B9A-B595-EFDD693874D4}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="36.0" collapsed="true"/>
+    <col min="10" max="10" style="2" width="8.88671875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="35.33203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:E10" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -3,19 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring Security\Spring_Security_WorkSpace\Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229F8FB9-D24C-47E8-887A-B6CFA6092DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47152EE1-8CAD-427A-B178-FB4C45742114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" r:id="rId5" sheetId="2"/>
-    <sheet name="Sheet1 (3)" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual" calcOnSave="0"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>Complete</t>
   </si>
@@ -138,52 +136,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Date</t>
-  </si>
-  <si>
-    <t>dist_refid</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>[{"name":"share","options":["google|microsoft|hmh|other"]}]</t>
-  </si>
-  <si>
-    <t>Decatur City Schools (00016827)</t>
-  </si>
-  <si>
-    <t>Ft. Payne City Schools (00008040)</t>
-  </si>
-  <si>
-    <t>Garden Grove USD (00096011)</t>
-  </si>
-  <si>
-    <t>Brea Olinda Unified School District (00094908)</t>
-  </si>
-  <si>
-    <t>Central USD (00058980)</t>
-  </si>
-  <si>
-    <t>Rosedale USD (00063727)</t>
-  </si>
-  <si>
-    <t>Fullerton Joint Union (00095926)</t>
-  </si>
-  <si>
-    <t>Norris SD (00063569)</t>
-  </si>
-  <si>
-    <t>Conejo Unified School District (00140894)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,19 +495,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCE6B1-5FF4-4B9A-B595-EFDD693874D4}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D44C493-03D4-463B-B46B-041356BEB4A8}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="36.0" collapsed="true"/>
-    <col min="10" max="10" style="2" width="8.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.88671875" style="2" collapsed="1"/>
+    <col min="11" max="11" width="35.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -596,7 +556,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>42377</v>
+        <v>42408</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -617,7 +577,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>42377</v>
+        <v>42370</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -638,7 +598,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>42377</v>
+        <v>42468</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -761,6 +721,46 @@
         <v>25</v>
       </c>
       <c r="J10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>42377</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>42377</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -770,328 +770,4 @@
     <ignoredError sqref="E2:E10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCE6B1-5FF4-4B9A-B595-EFDD693874D4}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="36.0" collapsed="true"/>
-    <col min="10" max="10" style="2" width="8.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="35.33203125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:E10" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DCE6B1-5FF4-4B9A-B595-EFDD693874D4}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="36.0" collapsed="true"/>
-    <col min="10" max="10" style="2" width="8.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="35.33203125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:E10" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>